--- a/mallar/import/sm_nm 2023/ekipage-smnm2023.xlsx
+++ b/mallar/import/sm_nm 2023/ekipage-smnm2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\sm_nm 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCD12E-BAEF-4D1A-932A-3EC8AEBCC6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B19D6-A9E3-4F1A-82DC-FDDD4A2C17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" activeTab="1" xr2:uid="{0021EC6B-3CA4-42A1-B5D1-C93CB3BC6B18}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="177">
   <si>
     <t>1.21</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Susanna Heuman</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>Individuell senior 1* Nationell klass - öppen för voltigörer med redan anmäld häst</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3194,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADF21DD-1E95-482C-894C-78F7896F7004}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3205,7 +3213,7 @@
     <col min="3" max="3" width="51.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>629733</v>
       </c>
@@ -3218,8 +3226,11 @@
       <c r="D1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>629734</v>
       </c>
@@ -3232,8 +3243,11 @@
       <c r="D2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>629736</v>
       </c>
@@ -3246,8 +3260,11 @@
       <c r="D3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>629739</v>
       </c>
@@ -3260,8 +3277,11 @@
       <c r="D4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>629742</v>
       </c>
@@ -3274,8 +3294,11 @@
       <c r="D5">
         <v>1061</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>629745</v>
       </c>
@@ -3288,8 +3311,11 @@
       <c r="D6">
         <v>1079</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>629746</v>
       </c>
@@ -3302,8 +3328,11 @@
       <c r="D7">
         <v>1080</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>629748</v>
       </c>
@@ -3316,8 +3345,11 @@
       <c r="D8">
         <v>1080</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>629749</v>
       </c>
@@ -3330,8 +3362,11 @@
       <c r="D9">
         <v>1081</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>629750</v>
       </c>
@@ -3343,6 +3378,28 @@
       </c>
       <c r="D10">
         <v>1083</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>629757</v>
+      </c>
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H12" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
